--- a/biology/Médecine/Manœuvre_vagale/Manœuvre_vagale.xlsx
+++ b/biology/Médecine/Manœuvre_vagale/Manœuvre_vagale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Man%C5%93uvre_vagale</t>
+          <t>Manœuvre_vagale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une manœuvre vagale est un geste permettant de stimuler le nerf vague, responsable du contrôle de nombreux viscères.
 Une manœuvre vagale peut provoquer un malaise ou guérir une crise, comme dans la maladie de Bouveret.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Man%C5%93uvre_vagale</t>
+          <t>Manœuvre_vagale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Principales manœuvres vagales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>le massage du sinus carotidien ;
 légère compression des globes oculaires ;
@@ -537,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Man%C5%93uvre_vagale</t>
+          <t>Manœuvre_vagale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,7 +569,9 @@
           <t>Utilisation thérapeutique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le cas de la tachycardie de Bouveret, le résultat peut être spectaculaire, obtenant la disparition des symptômes en quelques secondes.
 </t>
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Man%C5%93uvre_vagale</t>
+          <t>Manœuvre_vagale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,12 +604,51 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Manœuvres vagales volontaires
-La stimulation des différentes zones sensibles
+          <t>Manœuvres vagales volontaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La stimulation des différentes zones sensibles
 La compression oculaire est contre-indiquée chez les personnes ayant certaines anomalies oculaires (décollement de rétine, opération chirurgicale récente, glaucome)
-Le massage carotidien est contre-indiqué chez les personnes présentant de l'athérome (risque de thrombose ou d'embolie). On évite généralement cette manœuvre.
-Manœuvres vagales involontaires
-L'immersion en eau froide peut provoquer une perte de connaissance, pouvant être suivie de noyade (hydrocution)
+Le massage carotidien est contre-indiqué chez les personnes présentant de l'athérome (risque de thrombose ou d'embolie). On évite généralement cette manœuvre.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Manœuvre_vagale</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Man%C5%93uvre_vagale</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Dangers des manœuvres vagales</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Manœuvres vagales involontaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'immersion en eau froide peut provoquer une perte de connaissance, pouvant être suivie de noyade (hydrocution)
 La poussée abdominale aux toilettes peut provoquer un ralentissement cardiaque provoquant une perte de connaissance
  Portail de la médecine                     </t>
         </is>
